--- a/Outputs/Stueckliste-GP1247AI(1.02).xlsx
+++ b/Outputs/Stueckliste-GP1247AI(1.02).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sgo\3D Objects\GP1247AI_PCB\Outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD1599C-7205-4C6D-A0CC-DED91E486CC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7F04218-7B8A-4A5F-A451-0AD4DADBDA35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="21168" windowHeight="8964" xr2:uid="{AADF289E-F885-45B0-8D9F-C4477DCDF8C9}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="21168" windowHeight="8964" xr2:uid="{69DFC6DC-DF83-4ADE-A98F-71B5547199F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Stueckliste-GP1247AI(1.02)" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="130">
   <si>
     <t>LibRef</t>
   </si>
@@ -59,6 +59,12 @@
     <t>Text Field7</t>
   </si>
   <si>
+    <t>Text Field 1</t>
+  </si>
+  <si>
+    <t>Library Name</t>
+  </si>
+  <si>
     <t>4.7µF/100V/X7S</t>
   </si>
   <si>
@@ -71,6 +77,9 @@
     <t>Murata: GRM31CC72A475KE11L</t>
   </si>
   <si>
+    <t>SCH_SMD_Passive_Capacitor_1206.SchLib</t>
+  </si>
+  <si>
     <t>1µF/50V</t>
   </si>
   <si>
@@ -95,6 +104,9 @@
     <t>TDK: C1608X5R1V475K080AC</t>
   </si>
   <si>
+    <t>SCH_SMD_Passive_Capacitor_0603.SchLib</t>
+  </si>
+  <si>
     <t>1µF/25V/X7R/0603</t>
   </si>
   <si>
@@ -125,7 +137,7 @@
     <t>100NF/50V/0603, 100NF/100V/0603</t>
   </si>
   <si>
-    <t>C9, C16, C17, C18, C19, C20, C29</t>
+    <t>C9, C16, C17, C18, C19, C20, C29, C30, C31</t>
   </si>
   <si>
     <t>0603, 50V, ±10%, X7R</t>
@@ -164,6 +176,9 @@
     <t>Al-Elektrolyt</t>
   </si>
   <si>
+    <t>SCH_SMD_Passive_Capacitor_Al.SchLib</t>
+  </si>
+  <si>
     <t>STPS1H100A</t>
   </si>
   <si>
@@ -176,6 +191,9 @@
     <t>STMicroelectronics: STPS1H100A</t>
   </si>
   <si>
+    <t>SCH_SMD_Active_Diode.SchLib</t>
+  </si>
+  <si>
     <t>BZX84-C3V3</t>
   </si>
   <si>
@@ -194,6 +212,9 @@
     <t>D8</t>
   </si>
   <si>
+    <t>GP1247AI.SchLib</t>
+  </si>
+  <si>
     <t>490107671212</t>
   </si>
   <si>
@@ -203,6 +224,9 @@
     <t>J1</t>
   </si>
   <si>
+    <t>DAC.SCHLIB</t>
+  </si>
+  <si>
     <t>7440700068</t>
   </si>
   <si>
@@ -215,6 +239,9 @@
     <t>L1, L3</t>
   </si>
   <si>
+    <t>GP1247AI.SCHLIB</t>
+  </si>
+  <si>
     <t>74489440068</t>
   </si>
   <si>
@@ -242,6 +269,9 @@
     <t>Würth: 7427511</t>
   </si>
   <si>
+    <t>SCH_SMD_Passive_Wuerth.SchLib</t>
+  </si>
+  <si>
     <t>9774010360</t>
   </si>
   <si>
@@ -257,108 +287,108 @@
     <t>Würth: 9774010360</t>
   </si>
   <si>
+    <t>SCH_Passive_Universal.SchLib</t>
+  </si>
+  <si>
     <t>3670570</t>
   </si>
   <si>
     <t>MP5</t>
   </si>
   <si>
-    <t>SI2336DS</t>
+    <t>1M00/0603</t>
+  </si>
+  <si>
+    <t>R1, R4, R8</t>
+  </si>
+  <si>
+    <t>0603, 0,1 W, 1,0 %, TK50</t>
+  </si>
+  <si>
+    <t>SCH_SMD_Passive_Resistor_0603.SchLib</t>
+  </si>
+  <si>
+    <t>33K0/0603</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>100K/0603</t>
+  </si>
+  <si>
+    <t>R3, R5, R16, R20, R21, R23</t>
+  </si>
+  <si>
+    <t>SCH_SMD_Passive_Resistor_0603.SchLib, GP1247AI_1.SCHLIB</t>
+  </si>
+  <si>
+    <t>20K0/0603</t>
+  </si>
+  <si>
+    <t>R6, R7, R22</t>
+  </si>
+  <si>
+    <t>0603, 0,1 W, 1,0 %, TK100</t>
+  </si>
+  <si>
+    <t>470K/0603</t>
+  </si>
+  <si>
+    <t>R9</t>
+  </si>
+  <si>
+    <t>4K30/0603</t>
+  </si>
+  <si>
+    <t>R10</t>
+  </si>
+  <si>
+    <t>22K0/0603</t>
+  </si>
+  <si>
+    <t>21K5/0603</t>
+  </si>
+  <si>
+    <t>R11</t>
+  </si>
+  <si>
+    <t>100R/0603</t>
+  </si>
+  <si>
+    <t>R12, R13, R14, R15</t>
+  </si>
+  <si>
+    <t>10R0/0603</t>
+  </si>
+  <si>
+    <t>R17, R18</t>
+  </si>
+  <si>
+    <t>0603, 0,063W, 1,0 %, TK200</t>
+  </si>
+  <si>
+    <t>43K0/0603</t>
+  </si>
+  <si>
+    <t>R19</t>
+  </si>
+  <si>
+    <t>LT8361EMSE#PBF</t>
+  </si>
+  <si>
+    <t>MSOP-16/12__R</t>
+  </si>
+  <si>
+    <t>U1, U2, U3</t>
+  </si>
+  <si>
+    <t>LM3480IM3-3.3/NOPB</t>
   </si>
   <si>
     <t>SOT-23-3_PW__R</t>
   </si>
   <si>
-    <t>Q1</t>
-  </si>
-  <si>
-    <t>Vishay: SI2336DS-T1-GE3</t>
-  </si>
-  <si>
-    <t>1M00/0603</t>
-  </si>
-  <si>
-    <t>R1, R4, R8</t>
-  </si>
-  <si>
-    <t>0603, 0,1 W, 1,0 %, TK50</t>
-  </si>
-  <si>
-    <t>33K0/0603</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>100K/0603</t>
-  </si>
-  <si>
-    <t>R3, R5, R16, R20, R21, R23</t>
-  </si>
-  <si>
-    <t>20K0/0603</t>
-  </si>
-  <si>
-    <t>R6, R7, R22</t>
-  </si>
-  <si>
-    <t>0603, 0,1 W, 1,0 %, TK100</t>
-  </si>
-  <si>
-    <t>470K/0603</t>
-  </si>
-  <si>
-    <t>R9</t>
-  </si>
-  <si>
-    <t>4K30/0603</t>
-  </si>
-  <si>
-    <t>R10</t>
-  </si>
-  <si>
-    <t>22K0/0603</t>
-  </si>
-  <si>
-    <t>21K5/0603</t>
-  </si>
-  <si>
-    <t>R11</t>
-  </si>
-  <si>
-    <t>100R/0603</t>
-  </si>
-  <si>
-    <t>R12, R13, R14, R15</t>
-  </si>
-  <si>
-    <t>10R0/0603</t>
-  </si>
-  <si>
-    <t>R17, R18</t>
-  </si>
-  <si>
-    <t>0603, 0,063W, 1,0 %, TK200</t>
-  </si>
-  <si>
-    <t>1K00/0603</t>
-  </si>
-  <si>
-    <t>R19</t>
-  </si>
-  <si>
-    <t>LT8361EMSE#PBF</t>
-  </si>
-  <si>
-    <t>MSOP-16/12__R</t>
-  </si>
-  <si>
-    <t>U1, U2, U3</t>
-  </si>
-  <si>
-    <t>LM3480IM3-3.3/NOPB</t>
-  </si>
-  <si>
     <t>U4</t>
   </si>
   <si>
@@ -374,6 +404,18 @@
     <t>U5</t>
   </si>
   <si>
+    <t>GP1247AI_1.SCHLIB</t>
+  </si>
+  <si>
+    <t>NCP380HMUAJAATBG</t>
+  </si>
+  <si>
+    <t>SON65P200X200X55-7N</t>
+  </si>
+  <si>
+    <t>U6</t>
+  </si>
+  <si>
     <t>STIFTLEISTE_1X2_2MM_G_SMD</t>
   </si>
   <si>
@@ -384,6 +426,9 @@
   </si>
   <si>
     <t>JST: B2B-PH-SM4-TB(LF)(SN)</t>
+  </si>
+  <si>
+    <t>SCH_SMD_Connectors_JST_2mm.schLib</t>
   </si>
 </sst>
 </file>
@@ -759,22 +804,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D998702B-0AC0-4D80-B3D0-89F38970B8A9}">
-  <dimension ref="A1:F35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{577FEF14-0E4E-4E7E-B75D-073BCA28D09B}">
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="31.109375" customWidth="1"/>
     <col min="2" max="2" width="17.77734375" customWidth="1"/>
     <col min="3" max="5" width="19.77734375" customWidth="1"/>
-    <col min="6" max="6" width="35" customWidth="1"/>
+    <col min="6" max="6" width="21" customWidth="1"/>
+    <col min="7" max="8" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -793,671 +837,809 @@
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1">
         <v>2</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="D3" s="1">
         <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="D6" s="1">
         <v>3</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1">
         <v>6</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D8" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D9" s="1">
         <v>2</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D10" s="1">
         <v>3</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D12" s="1">
         <v>3</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D13" s="1">
         <v>4</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14" s="1"/>
+      <c r="H14" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15" s="1"/>
+      <c r="H15" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D16" s="1">
         <v>2</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16" s="1"/>
+      <c r="H16" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" s="1"/>
+      <c r="H17" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="D19" s="1">
         <v>4</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="D20" s="1">
         <v>1</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20" s="1"/>
+      <c r="H20" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="D21" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="1">
+        <v>6</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="1">
         <v>3</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="1">
-        <v>1</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" s="1">
-        <v>6</v>
-      </c>
       <c r="E24" s="2" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D25" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G25" s="1"/>
+      <c r="H25" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B26" s="2" t="s">
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" s="1">
-        <v>1</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" s="1">
-        <v>1</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D28" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D29" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+      <c r="G29" s="1"/>
+      <c r="H29" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D30" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+      <c r="G30" s="1"/>
+      <c r="H30" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>15</v>
+        <v>112</v>
       </c>
       <c r="D31" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="D32" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>75</v>
+        <v>119</v>
       </c>
       <c r="D33" s="1">
         <v>1</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="D34" s="1">
         <v>1</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G34" s="1"/>
+      <c r="H34" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="D35" s="1">
         <v>1</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>114</v>
+        <v>128</v>
+      </c>
+      <c r="G35" s="1"/>
+      <c r="H35" s="2" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/Stueckliste-GP1247AI(1.02).xlsx
+++ b/Outputs/Stueckliste-GP1247AI(1.02).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sgo\3D Objects\GP1247AI_PCB\Outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7F04218-7B8A-4A5F-A451-0AD4DADBDA35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29EA761A-B4FC-4262-AB04-4C62EB176F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="21168" windowHeight="8964" xr2:uid="{69DFC6DC-DF83-4ADE-A98F-71B5547199F5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{69DFC6DC-DF83-4ADE-A98F-71B5547199F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Stueckliste-GP1247AI(1.02)" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="115">
   <si>
     <t>LibRef</t>
   </si>
@@ -59,12 +59,6 @@
     <t>Text Field7</t>
   </si>
   <si>
-    <t>Text Field 1</t>
-  </si>
-  <si>
-    <t>Library Name</t>
-  </si>
-  <si>
     <t>4.7µF/100V/X7S</t>
   </si>
   <si>
@@ -77,9 +71,6 @@
     <t>Murata: GRM31CC72A475KE11L</t>
   </si>
   <si>
-    <t>SCH_SMD_Passive_Capacitor_1206.SchLib</t>
-  </si>
-  <si>
     <t>1µF/50V</t>
   </si>
   <si>
@@ -104,9 +95,6 @@
     <t>TDK: C1608X5R1V475K080AC</t>
   </si>
   <si>
-    <t>SCH_SMD_Passive_Capacitor_0603.SchLib</t>
-  </si>
-  <si>
     <t>1µF/25V/X7R/0603</t>
   </si>
   <si>
@@ -176,9 +164,6 @@
     <t>Al-Elektrolyt</t>
   </si>
   <si>
-    <t>SCH_SMD_Passive_Capacitor_Al.SchLib</t>
-  </si>
-  <si>
     <t>STPS1H100A</t>
   </si>
   <si>
@@ -191,9 +176,6 @@
     <t>STMicroelectronics: STPS1H100A</t>
   </si>
   <si>
-    <t>SCH_SMD_Active_Diode.SchLib</t>
-  </si>
-  <si>
     <t>BZX84-C3V3</t>
   </si>
   <si>
@@ -212,9 +194,6 @@
     <t>D8</t>
   </si>
   <si>
-    <t>GP1247AI.SchLib</t>
-  </si>
-  <si>
     <t>490107671212</t>
   </si>
   <si>
@@ -224,9 +203,6 @@
     <t>J1</t>
   </si>
   <si>
-    <t>DAC.SCHLIB</t>
-  </si>
-  <si>
     <t>7440700068</t>
   </si>
   <si>
@@ -239,9 +215,6 @@
     <t>L1, L3</t>
   </si>
   <si>
-    <t>GP1247AI.SCHLIB</t>
-  </si>
-  <si>
     <t>74489440068</t>
   </si>
   <si>
@@ -269,9 +242,6 @@
     <t>Würth: 7427511</t>
   </si>
   <si>
-    <t>SCH_SMD_Passive_Wuerth.SchLib</t>
-  </si>
-  <si>
     <t>9774010360</t>
   </si>
   <si>
@@ -287,9 +257,6 @@
     <t>Würth: 9774010360</t>
   </si>
   <si>
-    <t>SCH_Passive_Universal.SchLib</t>
-  </si>
-  <si>
     <t>3670570</t>
   </si>
   <si>
@@ -305,9 +272,6 @@
     <t>0603, 0,1 W, 1,0 %, TK50</t>
   </si>
   <si>
-    <t>SCH_SMD_Passive_Resistor_0603.SchLib</t>
-  </si>
-  <si>
     <t>33K0/0603</t>
   </si>
   <si>
@@ -320,9 +284,6 @@
     <t>R3, R5, R16, R20, R21, R23</t>
   </si>
   <si>
-    <t>SCH_SMD_Passive_Resistor_0603.SchLib, GP1247AI_1.SCHLIB</t>
-  </si>
-  <si>
     <t>20K0/0603</t>
   </si>
   <si>
@@ -404,9 +365,6 @@
     <t>U5</t>
   </si>
   <si>
-    <t>GP1247AI_1.SCHLIB</t>
-  </si>
-  <si>
     <t>NCP380HMUAJAATBG</t>
   </si>
   <si>
@@ -426,9 +384,6 @@
   </si>
   <si>
     <t>JST: B2B-PH-SM4-TB(LF)(SN)</t>
-  </si>
-  <si>
-    <t>SCH_SMD_Connectors_JST_2mm.schLib</t>
   </si>
 </sst>
 </file>
@@ -444,7 +399,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -454,6 +409,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD3D3D3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,12 +446,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -807,7 +769,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{577FEF14-0E4E-4E7E-B75D-073BCA28D09B}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -837,810 +801,740 @@
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="D2" s="1">
         <v>2</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="2" t="s">
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="G3" s="1"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="2" t="s">
+      <c r="G5" s="1"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="C6" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1">
         <v>3</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G6" s="1"/>
-      <c r="H6" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>28</v>
+      <c r="A7" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D7" s="1">
         <v>6</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="C8" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D8" s="1">
         <v>9</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G8" s="1"/>
-      <c r="H8" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>34</v>
+      <c r="A9" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D9" s="1">
         <v>2</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G9" s="1"/>
-      <c r="H9" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>37</v>
+      <c r="A10" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D10" s="1">
         <v>3</v>
       </c>
       <c r="E10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="G11" s="1"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="D12" s="1">
         <v>3</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G12" s="1"/>
-      <c r="H12" s="2" t="s">
-        <v>50</v>
-      </c>
+      <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>51</v>
+      <c r="A13" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D13" s="1">
         <v>4</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G13" s="1"/>
-      <c r="H13" s="2" t="s">
-        <v>50</v>
-      </c>
+      <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="2" t="s">
-        <v>57</v>
-      </c>
+      <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>58</v>
+      <c r="A15" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="2" t="s">
-        <v>61</v>
-      </c>
+      <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>62</v>
+      <c r="A16" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D16" s="1">
         <v>2</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="2" t="s">
-        <v>66</v>
-      </c>
+      <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>67</v>
+      <c r="A17" s="5" t="s">
+        <v>58</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="2" t="s">
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D18" s="1">
-        <v>1</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="G18" s="1"/>
-      <c r="H18" s="2" t="s">
-        <v>76</v>
-      </c>
+      <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>77</v>
+      <c r="A19" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="D19" s="1">
         <v>4</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="G19" s="1"/>
-      <c r="H19" s="2" t="s">
-        <v>82</v>
-      </c>
+      <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>83</v>
+      <c r="A20" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="D20" s="1">
         <v>1</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="2" t="s">
-        <v>66</v>
-      </c>
+      <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>85</v>
+      <c r="A21" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D21" s="1">
         <v>3</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="G21" s="1"/>
-      <c r="H21" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>89</v>
+      <c r="A22" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D22" s="1">
         <v>1</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="G22" s="1"/>
-      <c r="H22" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>91</v>
+      <c r="A23" s="5" t="s">
+        <v>79</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D23" s="1">
         <v>6</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="G23" s="1"/>
-      <c r="H23" s="2" t="s">
-        <v>93</v>
-      </c>
+      <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>94</v>
+      <c r="A24" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D24" s="1">
         <v>3</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="G24" s="1"/>
-      <c r="H24" s="2" t="s">
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="1">
-        <v>1</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" s="1">
-        <v>1</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G26" s="1"/>
-      <c r="H26" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="B27" s="2" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D27" s="1">
         <v>1</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="G27" s="1"/>
-      <c r="H27" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="H27" s="2"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>104</v>
+      <c r="A28" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D28" s="1">
         <v>4</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="G28" s="1"/>
-      <c r="H28" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="H28" s="2"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>106</v>
+      <c r="A29" s="5" t="s">
+        <v>93</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D29" s="1">
         <v>2</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="G29" s="1"/>
-      <c r="H29" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="H29" s="2"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>109</v>
+      <c r="A30" s="5" t="s">
+        <v>96</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D30" s="1">
         <v>1</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="G30" s="1"/>
-      <c r="H30" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="H30" s="2"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>111</v>
+      <c r="A31" s="5" t="s">
+        <v>98</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="D31" s="1">
         <v>3</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="2" t="s">
-        <v>57</v>
-      </c>
+      <c r="H31" s="2"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>114</v>
+      <c r="A32" s="5" t="s">
+        <v>101</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="D32" s="1">
         <v>1</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
-        <v>118</v>
+      <c r="A33" s="5" t="s">
+        <v>105</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="D33" s="1">
         <v>1</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
-      <c r="H33" s="2" t="s">
-        <v>121</v>
-      </c>
+      <c r="H33" s="2"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
-        <v>122</v>
+      <c r="A34" s="5" t="s">
+        <v>108</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="D34" s="1">
         <v>1</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
-      <c r="H34" s="2" t="s">
-        <v>66</v>
-      </c>
+      <c r="H34" s="2"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="D35" s="1">
         <v>1</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="G35" s="1"/>
-      <c r="H35" s="2" t="s">
-        <v>129</v>
-      </c>
+      <c r="H35" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
